--- a/Day-03.04/Функции для работы со строками.xlsx
+++ b/Day-03.04/Функции для работы со строками.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\083_\Day-03.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084E1C8-5803-49B1-8BDF-28AB925889E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF87AC01-AED3-4CAF-944E-CC3D78385D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="315" windowWidth="27105" windowHeight="14685" activeTab="5" xr2:uid="{986EFDD9-458B-4E53-B61D-F99A97C749EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{986EFDD9-458B-4E53-B61D-F99A97C749EF}"/>
   </bookViews>
   <sheets>
     <sheet name="объединение строк" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="получение части строки" sheetId="4" r:id="rId4"/>
     <sheet name="поиск по строке" sheetId="5" r:id="rId5"/>
     <sheet name="апострофы" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>Имя</t>
   </si>
@@ -261,13 +262,52 @@
   </si>
   <si>
     <t>возвращаем апострофы</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>privet, kak dela?</t>
+  </si>
+  <si>
+    <t>привет, как дела?</t>
+  </si>
+  <si>
+    <t>1 символ = 1 байт</t>
+  </si>
+  <si>
+    <t>1 символ = 2 байт</t>
+  </si>
+  <si>
+    <t>5 байт</t>
+  </si>
+  <si>
+    <t>12байт</t>
+  </si>
+  <si>
+    <t>17 байт</t>
+  </si>
+  <si>
+    <t>30 байт</t>
+  </si>
+  <si>
+    <t>100байт</t>
+  </si>
+  <si>
+    <t>привет!</t>
+  </si>
+  <si>
+    <t>в одну формулу</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet consectetur, adipisicing elit. Rerum exercitationem ratione repellat nulla itaque voluptatum accusamus nam, veniam, consequatur voluptas alias et incidunt assumenda. Voluptates, sit mollitia modi officiis nam nemo pariatur soluta ipsam assumenda saepe doloremque iusto nobis commodi illo dolores provident neque voluptate architecto ipsa omnis error impedit quasi? Impedit temporibus, dicta excepturi eos voluptatibus blanditiis harum illo, nobis odit, commodi facere ratione aspernatur dolores numquam? Porro corrupti perferendis aliquam totam commodi, repellendus suscipit veritatis velit incidunt. Rem commodi cumque quo accusamus! Sed, similique dolorum. Similique iure voluptates exercitationem dolore, dolorem, aperiam quisquam repellendus tempora quis voluptate quaerat nisi officiis id velit. Saepe recusandae eligendi magnam maiores necessitatibus soluta enim sed laborum, numquam placeat, debitis tempore eum obcaecati ut consectetur, asperiores itaque ullam dolor tempora sunt molestiae eveniet. Nihil adipisci quod nam fugiat modi corporis cum quisquam. Corporis quos illo, atque possimus placeat eum ab a praesentium modi quasi magni sapiente repellendus, sint ipsa iusto eaque ut enim architecto facere saepe nulla libero aliquid dolore. Quidem, eos repellat quas optio velit numquam in reprehenderit distinctio aut aperiam suscipit laboriosam. Saepe at voluptas rerum quae corrupti quisquam similique adipisci quibusdam, illo ipsum autem vero culpa eaque laborum, ipsa animi.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +346,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -368,25 +415,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,7 +754,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,10 +863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595E2975-2DC0-4374-9C74-F2717D9A23D4}">
-  <dimension ref="B1:C18"/>
+  <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,13 +970,73 @@
         <v>На дворе трава, на траве дрова - не руби дрова на траве двора.</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="str">
         <f>PROPER( LEFT(C2,1) )&amp;LOWER( RIGHT( C2,LEN(C2)-1 ) )</f>
         <v>На дворе трава, на траве дрова - не руби дрова на траве двора.</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>LEN(C22)</f>
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>LEN(C25)</f>
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +1050,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447CF3A5-3DAD-406D-BC0C-84BA2BB63CF1}">
   <dimension ref="B3:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1240,7 @@
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1142,7 +1251,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C20" t="str">
@@ -1159,7 +1268,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
       <c r="C21" t="str">
@@ -1176,7 +1285,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="str">
@@ -1202,7 +1311,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,13 +1325,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="11"/>
       <c r="E2" t="s">
         <v>64</v>
       </c>
@@ -1316,34 +1425,34 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F15" t="s">
@@ -1362,7 +1471,7 @@
       <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="14" t="str">
+      <c r="F16" s="12" t="str">
         <f>MID(E16, FIND("-",E16, FIND("-",E16)+1 )+1,50)</f>
         <v>Малый</v>
       </c>
@@ -1379,7 +1488,7 @@
       <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="14" t="str">
+      <c r="F17" s="12" t="str">
         <f t="shared" ref="F17:F20" si="4">MID(E17, FIND("-",E17, FIND("-",E17)+1 )+1,50)</f>
         <v>Средний</v>
       </c>
@@ -1396,7 +1505,7 @@
       <c r="E18" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="14" t="str">
+      <c r="F18" s="12" t="str">
         <f t="shared" si="4"/>
         <v>Большой</v>
       </c>
@@ -1413,7 +1522,7 @@
       <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="14" t="str">
+      <c r="F19" s="12" t="str">
         <f t="shared" si="4"/>
         <v>Средний</v>
       </c>
@@ -1430,7 +1539,7 @@
       <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="14" t="str">
+      <c r="F20" s="12" t="str">
         <f t="shared" si="4"/>
         <v>Большой</v>
       </c>
@@ -1447,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEE728A-1010-4E16-A89F-B95D0D823A1B}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,10 +1568,10 @@
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
@@ -1475,8 +1584,11 @@
       <c r="E2" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>71</v>
       </c>
@@ -1492,8 +1604,12 @@
         <f>SUBSTITUTE(D3,"abc","'")</f>
         <v>Starbuck's Coffee</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f>SUBSTITUTE( PROPER( SUBSTITUTE(B3,"'","abc") ), "abc","'")</f>
+        <v>Starbuck's Coffee</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -1509,8 +1625,12 @@
         <f t="shared" ref="E4:E5" si="2">SUBSTITUTE(D4,"abc","'")</f>
         <v>Mcdonald's</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F5" si="3">SUBSTITUTE( PROPER( SUBSTITUTE(B4,"'","abc") ), "abc","'")</f>
+        <v>Mcdonald's</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -1526,8 +1646,36 @@
         <f t="shared" si="2"/>
         <v>Michael's Deli</v>
       </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>Michael's Deli</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374FD9D4-4C6C-4146-A1C3-AC34B91D857B}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>